--- a/docs/项目进度.xlsx
+++ b/docs/项目进度.xlsx
@@ -1,71 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{507F8554-B1AE-4B4B-98A7-46E250AE02CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>通用课程网站进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一阶段 需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周翔辉</t>
+  </si>
+  <si>
+    <t>王帆</t>
+  </si>
+  <si>
+    <t>江礼军</t>
+  </si>
+  <si>
+    <t>钟卓熙</t>
   </si>
   <si>
     <t>2018年6月26日 星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周翔辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江礼军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟卓熙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>需求分析 4.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2后台管理页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站内容管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 完成</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -73,34 +101,200 @@
       <sz val="36"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +313,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,41 +508,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -211,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -246,7 +915,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -420,208 +1089,205 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="36.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="36.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="26.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="27.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" ht="28.8" spans="1:7">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A8:A37"/>
     <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A8:A37"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/项目进度.xlsx
+++ b/docs/项目进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{507F8554-B1AE-4B4B-98A7-46E250AE02CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F97DCF9-40F7-4A1B-912E-A7CB4FD3F0CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>通用课程网站进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>钟卓熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理网站内容管理及登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台界面需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文档引言、背景、需求规定、运行环境规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,11 +154,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,13 +263,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,22 +579,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="7" width="26.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="26.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,170 +606,438 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J4"/>
     <mergeCell ref="A8:A37"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
